--- a/Excel/DaftarKontak/PelangganDataExcel.xlsx
+++ b/Excel/DaftarKontak/PelangganDataExcel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>namapelanggan</t>
   </si>
@@ -44,6 +44,9 @@
     <t>kodepelanggan</t>
   </si>
   <si>
+    <t>kelompok</t>
+  </si>
+  <si>
     <t>nik</t>
   </si>
   <si>
@@ -80,6 +83,54 @@
     <t>topup</t>
   </si>
   <si>
+    <t>namapelanggan_edit</t>
+  </si>
+  <si>
+    <t>telepon_edit</t>
+  </si>
+  <si>
+    <t>nomorponsel_edit</t>
+  </si>
+  <si>
+    <t>email_edit</t>
+  </si>
+  <si>
+    <t>kodepelanggan_edit</t>
+  </si>
+  <si>
+    <t>nik_edit</t>
+  </si>
+  <si>
+    <t>npwp_edit</t>
+  </si>
+  <si>
+    <t>tenggat_edit</t>
+  </si>
+  <si>
+    <t>limitpiutang_edit</t>
+  </si>
+  <si>
+    <t>infoperusahaan_edit</t>
+  </si>
+  <si>
+    <t>jenisalamat_edit</t>
+  </si>
+  <si>
+    <t>alamatlengkap_edit</t>
+  </si>
+  <si>
+    <t>alamatfaktur_edit</t>
+  </si>
+  <si>
+    <t>namapj_edit</t>
+  </si>
+  <si>
+    <t>teleponpj_edit</t>
+  </si>
+  <si>
+    <t>emailpj_edit</t>
+  </si>
+  <si>
     <t>Sunari Ngatmono</t>
   </si>
   <si>
@@ -95,6 +146,9 @@
     <t>SW01</t>
   </si>
   <si>
+    <t>Kelompok Menengah</t>
+  </si>
+  <si>
     <t>00011111</t>
   </si>
   <si>
@@ -129,6 +183,54 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>Sunari Ngatmono (Edit)</t>
+  </si>
+  <si>
+    <t>034144556699</t>
+  </si>
+  <si>
+    <t>08112233399</t>
+  </si>
+  <si>
+    <t>sunari_edit@gmail.com</t>
+  </si>
+  <si>
+    <t>SW01EDIT</t>
+  </si>
+  <si>
+    <t>0001111199</t>
+  </si>
+  <si>
+    <t>00002222299</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>Catatan info perusahaan (Edit)</t>
+  </si>
+  <si>
+    <t>Rumah (Edit)</t>
+  </si>
+  <si>
+    <t>Jl. Alamat Lengkap 1 (Edit)</t>
+  </si>
+  <si>
+    <t>Gang Alamat Faktur (Edit)</t>
+  </si>
+  <si>
+    <t>PJ Sunari (Edit)</t>
+  </si>
+  <si>
+    <t>034311223399</t>
+  </si>
+  <si>
+    <t>pjsunari_edit@mail.com</t>
   </si>
 </sst>
 </file>
@@ -744,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,7 +856,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1302,17 +1416,18 @@
     <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="13.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="14.7272727272727" customWidth="1"/>
-    <col min="9" max="9" width="11.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="23.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="11.2727272727273" customWidth="1"/>
-    <col min="12" max="12" width="14.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="12.6363636363636" customWidth="1"/>
-    <col min="15" max="15" width="9.45454545454546" customWidth="1"/>
-    <col min="16" max="16" width="18.7272727272727" customWidth="1"/>
+    <col min="5" max="6" width="14.7272727272727" customWidth="1"/>
+    <col min="10" max="10" width="11.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="23.6363636363636" customWidth="1"/>
+    <col min="12" max="12" width="11.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="14.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="12.6363636363636" customWidth="1"/>
+    <col min="16" max="16" width="9.45454545454546" customWidth="1"/>
+    <col min="17" max="17" width="18.7272727272727" customWidth="1"/>
+    <col min="34" max="34" width="23.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,64 +1479,168 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="sunari@gmail.com"/>
-    <hyperlink ref="P2" r:id="rId2" display="pjsunari@mail.com"/>
+    <hyperlink ref="Q2" r:id="rId2" display="pjsunari@mail.com"/>
+    <hyperlink ref="V2" r:id="rId3" display="sunari_edit@gmail.com" tooltip="mailto:sunari_edit@gmail.com"/>
+    <hyperlink ref="AH2" r:id="rId4" display="pjsunari_edit@mail.com" tooltip="mailto:pjsunari_edit@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/DaftarKontak/PelangganDataExcel.xlsx
+++ b/Excel/DaftarKontak/PelangganDataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,8 +1406,8 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1416,7 +1416,8 @@
     <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="13.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
-    <col min="5" max="6" width="14.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="14.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="20.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="11.6363636363636" customWidth="1"/>
     <col min="11" max="11" width="23.6363636363636" customWidth="1"/>
     <col min="12" max="12" width="11.2727272727273" customWidth="1"/>
@@ -1424,6 +1425,7 @@
     <col min="14" max="14" width="12.6363636363636" customWidth="1"/>
     <col min="16" max="16" width="9.45454545454546" customWidth="1"/>
     <col min="17" max="17" width="18.7272727272727" customWidth="1"/>
+    <col min="19" max="19" width="22.2727272727273" customWidth="1"/>
     <col min="34" max="34" width="23.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
